--- a/Excel/New Era/2022.05.17/20.05.2022 NEW ERA — загрузка.xlsx
+++ b/Excel/New Era/2022.05.17/20.05.2022 NEW ERA — загрузка.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC84B58-CDDE-4B5E-AFE7-483129023794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAE4D3C-5D7D-4F3C-9557-47D1F128A2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0574609-5624-4BF8-BB49-B95F120AD4B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9115F7AD-1C83-45C0-8397-3D55C4E8AB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Загрузка" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>general</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{EF9E0748-9A88-4838-BF74-4AE2BAD572BA}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{ECBDBB68-DCB2-4C52-A1D5-2AD0B17E2976}">
       <text>
         <r>
           <rPr>
@@ -749,8 +749,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -759,12 +757,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -787,6 +779,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -868,25 +866,25 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 8" xfId="1" xr:uid="{7A9F0DB5-F6EA-4130-A111-DA80715E42B5}"/>
-    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{C459A67F-6E6E-4EF9-94B9-75F88649FE6C}"/>
+    <cellStyle name="Обычный 8" xfId="1" xr:uid="{3A6B5929-0076-474F-82AE-9BB340A33FEE}"/>
+    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{AABD3053-A1B9-47E4-8CFB-F36C2D3C1CA7}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1260,21 +1258,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2752259-309E-43B5-97B4-BB03F71CF4B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F631183-6512-44BC-A72A-20413FAB051E}">
   <sheetPr codeName="Лист28">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="5" bestFit="1" customWidth="1"/>
@@ -3369,7 +3367,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X1:X1048576" xr:uid="{F7AA1C2E-F804-4D63-9E8A-8B38347CB79C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X1:X1048576" xr:uid="{4A94A5EA-9C92-4469-9595-5650902E57CB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
